--- a/indata/relative risks.xlsx
+++ b/indata/relative risks.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\indata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\indata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96BBD65-2AC2-4943-89E2-323A280016E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="314850" yWindow="0" windowWidth="21915" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="257910" yWindow="0" windowWidth="21915" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Use This" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>reflux</t>
   </si>
@@ -335,33 +334,6 @@
     <t>Krishnamoorthi, R et al. Gastro Endo 84, 40–46.e7 (2016).</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Singh S, Clinical Gastroenterology and Hepatology 11, 620–629 (2013); 
-Beales ILP, et al. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dig. Dis. Sci.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 61, 238–246 (2016).</t>
-    </r>
-  </si>
-  <si>
     <t>. &lt;weekly</t>
   </si>
   <si>
@@ -369,12 +341,6 @@
   </si>
   <si>
     <t>. &gt; daily</t>
-  </si>
-  <si>
-    <t>. fam hx +</t>
-  </si>
-  <si>
-    <t>Assume sqroot of relative risk from population-based study (Moore SC, 2016).</t>
   </si>
   <si>
     <r>
@@ -413,8 +379,32 @@
     <t>prevalence reversed for protective</t>
   </si>
   <si>
+    <t>Parasa, Gastroenterology (2018);
+Krishnamoorthi, Am. J. Gastroenterol (2017);
+Duits, Gastroenterology (2017)
+Reid, Am J Gastroenterol 95, 1669–76 (2000);
+Rastogi, Gastrointestinal endoscopy (2008); 
+Choi,  Gut (2017); 
+Galipeau, PLoS medicine 4 (2007);
+Anaparthy, Nature Rev Gastro Hepatology (2014);
+Singh, Gastrointestinal Endoscopy (2014).</t>
+  </si>
+  <si>
+    <t>Averaged 2 Ors and put p-value at 0.01</t>
+  </si>
+  <si>
+    <t>Tan MC, et al.. Alimentary Pharmacology &amp; Therapeutics. http://onlinelibrary.wiley.com/doi/abs/10.1111/apt.14895 [Accessed July 3, 2018];
+Hardikar S, et al. PloS one 8, e52192 (2013).</t>
+  </si>
+  <si>
+    <t>. fam hx 1</t>
+  </si>
+  <si>
+    <t>Beales I, Disease of the Esophagus 26:838-846 (2016).</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Assume 2/3 root of relative risk from above (Cook MB, et al. </t>
+      <t xml:space="preserve">Estimated as 2/3 root of relative risk from above (Cook MB, et al. </t>
     </r>
     <r>
       <rPr>
@@ -439,51 +429,16 @@
     </r>
   </si>
   <si>
-    <t>Parasa, Gastroenterology (2018);
-Krishnamoorthi, Am. J. Gastroenterol (2017);
-Duits, Gastroenterology (2017)
-Reid, Am J Gastroenterol 95, 1669–76 (2000);
-Rastogi, Gastrointestinal endoscopy (2008); 
-Choi,  Gut (2017); 
-Galipeau, PLoS medicine 4 (2007);
-Anaparthy, Nature Rev Gastro Hepatology (2014);
-Singh, Gastrointestinal Endoscopy (2014).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Parasa, S. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et al.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gastroenterology 154, 1282-1289.e2 (2018);
-Hardikar S, et al. PloS one 8, e52192 (2013)</t>
-    </r>
-  </si>
-  <si>
-    <t>Averaged 2 Ors and put p-value at 0.01</t>
+    <t>Estimated as sqroot of relative risk from population-based study (Moore SC, 2016).</t>
+  </si>
+  <si>
+    <t>. fam hx 2+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -540,12 +495,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,6 +502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,25 +639,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -712,9 +653,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,12 +949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,10 +969,9 @@
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="53.28515625" customWidth="1"/>
     <col min="19" max="19" width="61" style="4" customWidth="1"/>
     <col min="20" max="20" width="9.140625" customWidth="1"/>
@@ -1060,10 +1014,10 @@
       <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="48" t="s">
         <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1135,7 +1089,7 @@
         <v>2.08</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
@@ -1147,11 +1101,11 @@
       <c r="H3" s="12">
         <v>0.30499999999999999</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="49">
         <f>EXP($G3-1.96*$H3)</f>
         <v>1.1440423296475395</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="49">
         <f>EXP($G3+1.96*$H3)</f>
         <v>3.7816782542765637</v>
       </c>
@@ -1192,7 +1146,7 @@
         <v>5.07</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="13">
         <v>2</v>
@@ -1249,7 +1203,7 @@
         <v>7.96</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="13">
         <v>3</v>
@@ -1357,11 +1311,11 @@
       <c r="H7" s="2">
         <v>9.0676466154929233E-2</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="49">
         <f>EXP($G7-1.96*$H7)</f>
         <v>1.6408568904801626</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="49">
         <f>EXP($G7+1.96*$H7)</f>
         <v>2.341215752749672</v>
       </c>
@@ -1453,11 +1407,11 @@
       <c r="H9" s="12">
         <v>0.1</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="49">
         <f t="shared" ref="I9:I12" si="6">EXP($G9-1.96*$H9)</f>
         <v>1.2658988414044074</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="49">
         <f t="shared" ref="J9:J12" si="7">EXP($G9+1.96*$H9)</f>
         <v>1.8734514342148472</v>
       </c>
@@ -1690,7 +1644,7 @@
         <v>36</v>
       </c>
       <c r="R13" s="8">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="S13" s="9"/>
     </row>
@@ -1708,7 +1662,7 @@
         <v>2.76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -1720,17 +1674,25 @@
       <c r="H14" s="2">
         <v>0.21600698756422615</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="49">
         <f>EXP($G14-1.96*$H14)</f>
         <v>1.8073415055615647</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="49">
         <f>EXP($G14+1.96*$H14)</f>
         <v>4.2148094184519422</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="K14" s="8">
+        <v>3.5121095539893121E-6</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" ref="L14:L15" si="12" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K14))</f>
+        <v>4.6999728538648116</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" ref="M14:M15" si="13">ABS(LN(D14) / L14)</f>
+        <v>0.21600777521389919</v>
+      </c>
       <c r="N14" s="8">
         <f>(LN(J14) - LN(I14))/(2*1.96)</f>
         <v>0.21600698756422612</v>
@@ -1747,52 +1709,66 @@
         <v>22</v>
       </c>
       <c r="R14" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <f>EXP(LN(D14)*2)</f>
+        <v>7.6175999999999968</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ref="G15" si="14">LN(D15)</f>
+        <v>2.0304613594581169</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.43201555042779838</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15" si="15">EXP($G15-1.96*$H15)</f>
+        <v>3.2664732321906063</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" ref="J15" si="16">EXP($G15+1.96*$H15)</f>
+        <v>17.764673283755815</v>
+      </c>
+      <c r="K15" s="49">
+        <v>3.5121095539893121E-6</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="12"/>
+        <v>4.6999728538648116</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="13"/>
+        <v>0.43201555042779838</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1802,97 +1778,97 @@
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="12">
-        <v>0.4</v>
-      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <f>LN(D16)</f>
-        <v>-0.916290731874155</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0.26190127376773054</v>
-      </c>
-      <c r="I16" s="55">
-        <f>EXP($G16-1.96*$H16)</f>
-        <v>0.23940054042201614</v>
-      </c>
-      <c r="J16" s="55">
-        <f>EXP($G16+1.96*$H16)</f>
-        <v>0.66833600173980989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="14">
-        <f t="shared" ref="N16" si="12">(LN(J16) - LN(I16))/(2*1.96)</f>
-        <v>0.26190127376773054</v>
-      </c>
-      <c r="O16" s="14">
-        <f t="shared" ref="O16" si="13">ABS(LN(D16)/N16)</f>
-        <v>3.4986112083088821</v>
-      </c>
-      <c r="P16" s="14">
-        <f t="shared" ref="P16" si="14">EXP(-0.717*O16 - 0.416*O16^2)</f>
-        <v>5.0022083987205667E-4</v>
-      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="34" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="R16" s="15">
         <v>0.5</v>
       </c>
       <c r="S16" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <f>LN(D17)</f>
+        <v>-0.916290731874155</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.26190127376773054</v>
+      </c>
+      <c r="I17" s="49">
+        <f>EXP($G17-1.96*$H17)</f>
+        <v>0.23940054042201614</v>
+      </c>
+      <c r="J17" s="49">
+        <f>EXP($G17+1.96*$H17)</f>
+        <v>0.66833600173980989</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14">
+        <f t="shared" ref="N17" si="17">(LN(J17) - LN(I17))/(2*1.96)</f>
+        <v>0.26190127376773054</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" ref="O17" si="18">ABS(LN(D17)/N17)</f>
+        <v>3.4986112083088821</v>
+      </c>
+      <c r="P17" s="14">
+        <f t="shared" ref="P17" si="19">EXP(-0.717*O17 - 0.416*O17^2)</f>
+        <v>5.0022083987205667E-4</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="S17" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17" s="61">
-        <v>0.25</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1902,88 +1878,90 @@
       <c r="C18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="55">
+        <v>0.35</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
         <v>0.52</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <f>LN(D18)</f>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <f>LN(D19)</f>
         <v>-0.65392646740666394</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>9.1540629277578833E-2</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I19" s="50">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J19" s="49">
         <v>0.92</v>
       </c>
-      <c r="N18" s="8">
-        <f>(LN(J18) - LN(I18))/(2*1.96)</f>
+      <c r="N19" s="8">
+        <f>(LN(J19) - LN(I19))/(2*1.96)</f>
         <v>0.30346532318210107</v>
       </c>
-      <c r="O18" s="8">
-        <f>ABS(LN(D18)/N18)</f>
+      <c r="O19" s="8">
+        <f>ABS(LN(D19)/N19)</f>
         <v>2.1548638920245295</v>
       </c>
-      <c r="P18" s="8">
-        <f>EXP(-0.717*O18 - 0.416*O18^2)</f>
+      <c r="P19" s="8">
+        <f>EXP(-0.717*O19 - 0.416*O19^2)</f>
         <v>3.0909002881295382E-2</v>
       </c>
-      <c r="Q18" s="35" t="s">
+      <c r="Q19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="62">
-        <v>0.75</v>
-      </c>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="15">
-        <v>0.25</v>
+      <c r="R19" s="56">
+        <v>0.65</v>
       </c>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
@@ -1993,46 +1971,29 @@
       <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="12">
-        <v>0.86099999999999999</v>
-      </c>
+      <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
-        <f t="shared" ref="G20:G24" si="15">LN(D20)</f>
-        <v>-0.14966077455440627</v>
-      </c>
-      <c r="H20" s="15">
-        <v>5.811786506324796E-2</v>
-      </c>
-      <c r="I20" s="15">
-        <f>EXP($G20-1.96*$H20)</f>
-        <v>0.76830246396523483</v>
-      </c>
-      <c r="J20" s="15">
-        <f>EXP($G20+1.96*$H20)</f>
-        <v>0.96488171621110952</v>
-      </c>
-      <c r="K20" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="L20" s="15">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K20))</f>
-        <v>2.5751251253213594</v>
-      </c>
-      <c r="M20" s="15">
-        <f>ABS(LN(D20) / L20)</f>
-        <v>5.811786506324796E-2</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="34" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R20" s="15">
         <v>0.25</v>
@@ -2050,41 +2011,39 @@
         <v>1</v>
       </c>
       <c r="D21" s="12">
-        <f>EXP(LN(D20)*2)</f>
-        <v>0.74132100000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" si="15"/>
-        <v>-0.29932154910881248</v>
+        <f t="shared" ref="G21:G25" si="20">LN(D21)</f>
+        <v>-0.14966077455440627</v>
       </c>
       <c r="H21" s="15">
-        <f>H20*2</f>
-        <v>0.11623573012649592</v>
+        <v>5.811786506324796E-2</v>
       </c>
       <c r="I21" s="15">
-        <f t="shared" ref="I21:I22" si="16">EXP($G21-1.96*$H21)</f>
-        <v>0.59028867613505109</v>
+        <f>EXP($G21-1.96*$H21)</f>
+        <v>0.76830246396523483</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" ref="J21:J22" si="17">EXP($G21+1.96*$H21)</f>
-        <v>0.93099672627849617</v>
-      </c>
-      <c r="K21" s="15">
+        <f>EXP($G21+1.96*$H21)</f>
+        <v>0.96488171621110952</v>
+      </c>
+      <c r="K21" s="49">
         <v>0.01</v>
       </c>
       <c r="L21" s="15">
-        <f t="shared" ref="L21:L22" si="18" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K21))</f>
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K21))</f>
         <v>2.5751251253213594</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" ref="M21:M22" si="19">ABS(LN(D21) / L21)</f>
-        <v>0.11623573012649591</v>
+        <f>ABS(LN(D21) / L21)</f>
+        <v>5.811786506324796E-2</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -2108,41 +2067,41 @@
         <v>1</v>
       </c>
       <c r="D22" s="12">
-        <f>EXP(LN(D20)*3)</f>
-        <v>0.63827738099999998</v>
+        <f>EXP(LN(D21)*2)</f>
+        <v>0.74132100000000001</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="15"/>
-        <v>-0.44898232366321877</v>
+        <f t="shared" si="20"/>
+        <v>-0.29932154910881248</v>
       </c>
       <c r="H22" s="15">
-        <f>H20*3</f>
-        <v>0.17435359518974389</v>
+        <f>H21*2</f>
+        <v>0.11623573012649592</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="16"/>
-        <v>0.45352024432533622</v>
+        <f t="shared" ref="I22:I23" si="21">EXP($G22-1.96*$H22)</f>
+        <v>0.59028867613505109</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="17"/>
-        <v>0.89830171903851996</v>
+        <f t="shared" ref="J22:J23" si="22">EXP($G22+1.96*$H22)</f>
+        <v>0.93099672627849617</v>
       </c>
       <c r="K22" s="15">
         <v>0.01</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="L22:L23" si="23" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K22))</f>
         <v>2.5751251253213594</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="19"/>
-        <v>0.17435359518974389</v>
+        <f t="shared" ref="M22:M23" si="24">ABS(LN(D22) / L22)</f>
+        <v>0.11623573012649591</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
@@ -2155,210 +2114,211 @@
       </c>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0</v>
-      </c>
-      <c r="C23" s="21">
-        <v>1</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <f>EXP(LN(D21)*3)</f>
+        <v>0.63827738099999998</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="20"/>
+        <v>-0.44898232366321877</v>
+      </c>
+      <c r="H23" s="15">
+        <f>H21*3</f>
+        <v>0.17435359518974389</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="21"/>
+        <v>0.45352024432533622</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="22"/>
+        <v>0.89830171903851996</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="23"/>
+        <v>2.5751251253213594</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="24"/>
+        <v>0.17435359518974389</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="Q24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" s="55">
+        <v>1.84E-2</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0.33</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="Q23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23" s="27">
-        <v>1.84E-2</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="21">
-        <v>0</v>
-      </c>
-      <c r="C24" s="21">
-        <v>1</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15">
-        <f t="shared" si="15"/>
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="20"/>
         <v>-1.1086626245216111</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H25" s="27">
         <v>0.56661507806391909</v>
       </c>
-      <c r="I24" s="15">
-        <f>EXP($G24-1.96*$H24)</f>
+      <c r="I25" s="15">
+        <f>EXP($G25-1.96*$H25)</f>
         <v>0.10869296813401993</v>
       </c>
-      <c r="J24" s="15">
-        <f>EXP($G24+1.96*$H24)</f>
+      <c r="J25" s="15">
+        <f>EXP($G25+1.96*$H25)</f>
         <v>1.0019047402010846</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K25" s="54">
         <v>0.05</v>
       </c>
-      <c r="L24" s="15">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K24))</f>
+      <c r="L25" s="15">
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K25))</f>
         <v>1.9566415851654133</v>
       </c>
-      <c r="M24" s="15">
-        <f>ABS(LN(D24) / L24)</f>
+      <c r="M25" s="15">
+        <f>ABS(LN(D25) / L25)</f>
         <v>0.56661507806391909</v>
       </c>
-      <c r="Q24" s="59" t="s">
+      <c r="Q25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R25" s="55">
         <v>0.98160000000000003</v>
       </c>
-      <c r="S24" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="9"/>
-    </row>
-    <row r="26" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
+      <c r="S25" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S26" s="9"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="11">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12">
-        <f>EXP(G3*0.67)</f>
-        <v>1.6334371714549192</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="F27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" ref="G27:G29" si="20">LN(D27)</f>
-        <v>0.49068648878786186</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12">
-        <v>0.25077995505568257</v>
-      </c>
-      <c r="I27" s="15">
-        <f t="shared" ref="I27:I29" si="21">EXP($G27-1.96*$H27)</f>
-        <v>0.99915813144906762</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" ref="J27:J29" si="22">EXP($G27+1.96*$H27)</f>
-        <v>2.6703650894789872</v>
-      </c>
-      <c r="K27" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="L27" s="15">
-        <f t="shared" ref="L27:L29" si="23" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K27))</f>
-        <v>1.9566415851654133</v>
-      </c>
-      <c r="M27" s="15">
-        <f t="shared" ref="M27:M29" si="24">ABS(LN(D27) / L27)</f>
-        <v>0.25077995505568257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
-      <c r="Q27" s="31" t="s">
-        <v>22</v>
+      <c r="Q27" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="R27" s="14">
         <v>0.1</v>
@@ -2376,40 +2336,40 @@
         <v>1</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" ref="D28:D29" si="25">EXP(G4*0.67)</f>
-        <v>2.9672581594727543</v>
+        <f>EXP(G3*0.67)</f>
+        <v>1.6334371714549192</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="20"/>
-        <v>1.0876383477940716</v>
+        <f t="shared" ref="G28:G30" si="25">LN(D28)</f>
+        <v>0.49068648878786186</v>
       </c>
       <c r="H28" s="12">
-        <v>0.55586999481160637</v>
+        <v>0.25077995505568257</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="21"/>
-        <v>0.99813489942906919</v>
+        <f t="shared" ref="I28:I30" si="26">EXP($G28-1.96*$H28)</f>
+        <v>0.99915813144906762</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="22"/>
-        <v>8.8210731735698875</v>
-      </c>
-      <c r="K28" s="14">
+        <f t="shared" ref="J28:J30" si="27">EXP($G28+1.96*$H28)</f>
+        <v>2.6703650894789872</v>
+      </c>
+      <c r="K28" s="49">
         <v>0.05</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="L28:L30" si="28" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K28))</f>
         <v>1.9566415851654133</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="24"/>
-        <v>0.55586999481160637</v>
+        <f t="shared" ref="M28:M30" si="29">ABS(LN(D28) / L28)</f>
+        <v>0.25077995505568257</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
@@ -2418,7 +2378,7 @@
         <v>22</v>
       </c>
       <c r="R28" s="14">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="S28" s="9"/>
     </row>
@@ -2433,40 +2393,40 @@
         <v>1</v>
       </c>
       <c r="D29" s="12">
+        <f>EXP(G4*0.67)</f>
+        <v>2.9672581594727543</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
         <f t="shared" si="25"/>
-        <v>4.0143178392147041</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="13">
-        <v>3</v>
-      </c>
-      <c r="G29" s="12">
-        <f t="shared" si="20"/>
-        <v>1.3898674299037155</v>
+        <v>1.0876383477940716</v>
       </c>
       <c r="H29" s="12">
-        <v>0.71033317519223482</v>
+        <v>0.55586999481160637</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="21"/>
-        <v>0.99761724979363564</v>
+        <f t="shared" si="26"/>
+        <v>0.99813489942906919</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="22"/>
-        <v>16.153236842657705</v>
+        <f t="shared" si="27"/>
+        <v>8.8210731735698875</v>
       </c>
       <c r="K29" s="14">
         <v>0.05</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.9566415851654133</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="24"/>
-        <v>0.71033317519223482</v>
+        <f t="shared" si="29"/>
+        <v>0.55586999481160637</v>
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
@@ -2479,122 +2439,148 @@
       </c>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="40">
-        <v>1</v>
-      </c>
-      <c r="C30" s="40">
-        <v>1</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="40" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <f>EXP(G5*0.67)</f>
+        <v>4.0143178392147041</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="13">
+        <v>3</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="25"/>
+        <v>1.3898674299037155</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0.71033317519223482</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="26"/>
+        <v>0.99761724979363564</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="27"/>
+        <v>16.153236842657705</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="28"/>
+        <v>1.9566415851654133</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="29"/>
+        <v>0.71033317519223482</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1</v>
+      </c>
+      <c r="C31" s="40">
+        <v>1</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="42">
-        <v>0</v>
-      </c>
-      <c r="G30" s="41">
-        <v>0</v>
-      </c>
-      <c r="H30" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="R30" s="44">
+      <c r="F31" s="42">
+        <v>0</v>
+      </c>
+      <c r="G31" s="41">
+        <v>0</v>
+      </c>
+      <c r="H31" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="R31" s="44">
         <v>0.36</v>
       </c>
-      <c r="S30" s="45"/>
-    </row>
-    <row r="31" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="40">
-        <v>1</v>
-      </c>
-      <c r="C31" s="40">
-        <v>1</v>
-      </c>
-      <c r="D31" s="41">
+      <c r="S31" s="45"/>
+    </row>
+    <row r="32" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1</v>
+      </c>
+      <c r="C32" s="40">
+        <v>1</v>
+      </c>
+      <c r="D32" s="41">
         <v>1.6</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="42">
-        <v>1</v>
-      </c>
-      <c r="G31" s="41">
-        <f t="shared" ref="G31" si="26">LN(D31)</f>
+      <c r="F32" s="42">
+        <v>1</v>
+      </c>
+      <c r="G32" s="41">
+        <f t="shared" ref="G32" si="30">LN(D32)</f>
         <v>0.47000362924573563</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H32" s="41">
         <v>0.19341121981124215</v>
       </c>
-      <c r="I31" s="43">
-        <f t="shared" ref="I31:I36" si="27">EXP($G31-1.96*$H31)</f>
+      <c r="I32" s="43">
+        <f t="shared" ref="I32:I37" si="31">EXP($G32-1.96*$H32)</f>
         <v>1.0951788008826973</v>
       </c>
-      <c r="J31" s="43">
-        <f t="shared" ref="J31:J36" si="28">EXP($G31+1.96*$H31)</f>
+      <c r="J32" s="43">
+        <f t="shared" ref="J32:J37" si="32">EXP($G32+1.96*$H32)</f>
         <v>2.3375178536478969</v>
       </c>
-      <c r="K31" s="55">
+      <c r="K32" s="49">
         <v>0.01</v>
       </c>
-      <c r="L31" s="43">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K31))</f>
+      <c r="L32" s="43">
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K32))</f>
         <v>2.5751251253213594</v>
       </c>
-      <c r="M31" s="43">
-        <f>ABS(LN(D31) / L31)</f>
+      <c r="M32" s="43">
+        <f>ABS(LN(D32) / L32)</f>
         <v>0.18251681233822847</v>
       </c>
-      <c r="Q31" s="46" t="s">
+      <c r="Q32" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R31" s="44">
+      <c r="R32" s="44">
         <v>0.64</v>
       </c>
-      <c r="S31" s="45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="R32" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="S32" s="26"/>
+      <c r="S32" s="45" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="33" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
@@ -2606,51 +2592,26 @@
       <c r="C33" s="21">
         <v>1</v>
       </c>
-      <c r="D33" s="22">
-        <v>1.3</v>
-      </c>
+      <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F33" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="22">
-        <f>LN(D33)</f>
-        <v>0.26236426446749106</v>
+        <v>0</v>
       </c>
       <c r="H33" s="22">
-        <v>0.12395734354696404</v>
-      </c>
-      <c r="I33" s="24">
-        <f t="shared" si="27"/>
-        <v>1.019597428159736</v>
-      </c>
-      <c r="J33" s="24">
-        <f t="shared" si="28"/>
-        <v>1.6575169310207745</v>
-      </c>
-      <c r="K33" s="55">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="L33" s="27">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K33))</f>
-        <v>2.1165689499314611</v>
-      </c>
-      <c r="M33" s="27">
-        <f>ABS(LN(D33) / L33)</f>
-        <v>0.12395734354696404</v>
-      </c>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="37" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="R33" s="25">
         <v>0.3</v>
       </c>
-      <c r="S33" s="29"/>
+      <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
@@ -2663,41 +2624,39 @@
         <v>1</v>
       </c>
       <c r="D34" s="22">
-        <f>EXP(LN(D33)*2)</f>
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="22">
-        <f t="shared" ref="G34:G36" si="29">LN(D34)</f>
-        <v>0.52472852893498212</v>
+        <f>LN(D34)</f>
+        <v>0.26236426446749106</v>
       </c>
       <c r="H34" s="22">
-        <f>H33*2</f>
-        <v>0.24791468709392808</v>
+        <v>0.12395734354696404</v>
       </c>
       <c r="I34" s="24">
-        <f t="shared" si="27"/>
-        <v>1.039578915509948</v>
+        <f t="shared" si="31"/>
+        <v>1.019597428159736</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="28"/>
-        <v>2.7473623766205266</v>
-      </c>
-      <c r="K34" s="24">
+        <f t="shared" si="32"/>
+        <v>1.6575169310207745</v>
+      </c>
+      <c r="K34" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="L34" s="27">
-        <f t="shared" ref="L34:L36" si="30" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K34))</f>
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K34))</f>
         <v>2.1165689499314611</v>
       </c>
       <c r="M34" s="27">
-        <f t="shared" ref="M34:M36" si="31">ABS(LN(D34) / L34)</f>
-        <v>0.24791468709392808</v>
+        <f>ABS(LN(D34) / L34)</f>
+        <v>0.12395734354696404</v>
       </c>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
@@ -2708,7 +2667,7 @@
       <c r="R34" s="25">
         <v>0.3</v>
       </c>
-      <c r="S34" s="26"/>
+      <c r="S34" s="29"/>
     </row>
     <row r="35" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -2721,41 +2680,41 @@
         <v>1</v>
       </c>
       <c r="D35" s="22">
-        <f>EXP(LN(D33)*3)</f>
-        <v>2.1970000000000001</v>
+        <f>EXP(LN(D34)*2)</f>
+        <v>1.69</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="29"/>
-        <v>0.78709279340247318</v>
+        <f t="shared" ref="G35:G37" si="33">LN(D35)</f>
+        <v>0.52472852893498212</v>
       </c>
       <c r="H35" s="22">
-        <f>H33*3</f>
-        <v>0.37187203064089214</v>
+        <f>H34*2</f>
+        <v>0.24791468709392808</v>
       </c>
       <c r="I35" s="24">
-        <f t="shared" si="27"/>
-        <v>1.0599519886230304</v>
+        <f t="shared" si="31"/>
+        <v>1.039578915509948</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="28"/>
-        <v>4.553799654897996</v>
+        <f t="shared" si="32"/>
+        <v>2.7473623766205266</v>
       </c>
       <c r="K35" s="24">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="L35" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="L35:L37" si="34" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K35))</f>
         <v>2.1165689499314611</v>
       </c>
       <c r="M35" s="27">
-        <f t="shared" si="31"/>
-        <v>0.37187203064089214</v>
+        <f t="shared" ref="M35:M37" si="35">ABS(LN(D35) / L35)</f>
+        <v>0.24791468709392808</v>
       </c>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
@@ -2764,7 +2723,7 @@
         <v>22</v>
       </c>
       <c r="R35" s="25">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="S35" s="26"/>
     </row>
@@ -2779,41 +2738,41 @@
         <v>1</v>
       </c>
       <c r="D36" s="22">
-        <f>EXP(LN(D33)*4)</f>
-        <v>2.8561000000000001</v>
+        <f>EXP(LN(D34)*3)</f>
+        <v>2.1970000000000001</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="22">
-        <f t="shared" si="29"/>
-        <v>1.0494570578699642</v>
+        <f t="shared" si="33"/>
+        <v>0.78709279340247318</v>
       </c>
       <c r="H36" s="22">
-        <f>H33*4</f>
-        <v>0.49582937418785616</v>
+        <f>H34*3</f>
+        <v>0.37187203064089214</v>
       </c>
       <c r="I36" s="24">
-        <f t="shared" si="27"/>
-        <v>1.0807243215728395</v>
+        <f t="shared" si="31"/>
+        <v>1.0599519886230304</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="28"/>
-        <v>7.5480000284699891</v>
+        <f t="shared" si="32"/>
+        <v>4.553799654897996</v>
       </c>
       <c r="K36" s="24">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="L36" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.1165689499314611</v>
       </c>
       <c r="M36" s="27">
-        <f t="shared" si="31"/>
-        <v>0.49582937418785616</v>
+        <f t="shared" si="35"/>
+        <v>0.37187203064089214</v>
       </c>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
@@ -2826,38 +2785,65 @@
       </c>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="40">
-        <v>1</v>
-      </c>
-      <c r="C37" s="40">
-        <v>1</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="42">
-        <v>0</v>
-      </c>
-      <c r="G37" s="41">
-        <v>0</v>
-      </c>
-      <c r="H37" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="R37" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="S37" s="45"/>
-    </row>
-    <row r="38" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1</v>
+      </c>
+      <c r="C37" s="21">
+        <v>1</v>
+      </c>
+      <c r="D37" s="22">
+        <f>EXP(LN(D34)*4)</f>
+        <v>2.8561000000000001</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="23">
+        <v>4</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="33"/>
+        <v>1.0494570578699642</v>
+      </c>
+      <c r="H37" s="22">
+        <f>H34*4</f>
+        <v>0.49582937418785616</v>
+      </c>
+      <c r="I37" s="24">
+        <f t="shared" si="31"/>
+        <v>1.0807243215728395</v>
+      </c>
+      <c r="J37" s="24">
+        <f t="shared" si="32"/>
+        <v>7.5480000284699891</v>
+      </c>
+      <c r="K37" s="24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L37" s="27">
+        <f t="shared" si="34"/>
+        <v>2.1165689499314611</v>
+      </c>
+      <c r="M37" s="27">
+        <f t="shared" si="35"/>
+        <v>0.49582937418785616</v>
+      </c>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="S37" s="26"/>
+    </row>
+    <row r="38" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>3</v>
       </c>
@@ -2867,80 +2853,80 @@
       <c r="C38" s="40">
         <v>1</v>
       </c>
-      <c r="D38" s="41">
-        <v>0.4</v>
-      </c>
+      <c r="D38" s="41"/>
       <c r="E38" s="41" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F38" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="41">
-        <f>LN(D38)</f>
-        <v>-0.916290731874155</v>
-      </c>
-      <c r="H38" s="43">
-        <v>0.2618976502660767</v>
-      </c>
-      <c r="I38" s="55">
-        <v>0.24</v>
-      </c>
-      <c r="J38" s="55">
-        <v>0.67</v>
-      </c>
-      <c r="N38" s="43">
-        <f>(LN(J38) - LN(I38))/(2*1.96)</f>
-        <v>0.2618976502660767</v>
-      </c>
-      <c r="O38" s="43">
-        <f>ABS(LN(D38)/N38)</f>
-        <v>3.4986596135675261</v>
-      </c>
-      <c r="P38" s="43">
-        <f>EXP(-0.717*O38 - 0.416*O38^2)</f>
-        <v>5.0013300493969876E-4</v>
-      </c>
-      <c r="Q38" s="57" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="H38" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="R38" s="44">
         <v>0.5</v>
       </c>
       <c r="S38" s="45"/>
     </row>
-    <row r="39" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="21">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21">
-        <v>1</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0</v>
-      </c>
-      <c r="G39" s="22">
-        <v>0</v>
-      </c>
-      <c r="H39" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R39" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="S39" s="26"/>
-    </row>
-    <row r="40" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="40">
+        <v>1</v>
+      </c>
+      <c r="C39" s="40">
+        <v>1</v>
+      </c>
+      <c r="D39" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="42">
+        <v>1</v>
+      </c>
+      <c r="G39" s="41">
+        <f>LN(D39)</f>
+        <v>-0.916290731874155</v>
+      </c>
+      <c r="H39" s="43">
+        <v>0.2618976502660767</v>
+      </c>
+      <c r="I39" s="49">
+        <v>0.24</v>
+      </c>
+      <c r="J39" s="49">
+        <v>0.67</v>
+      </c>
+      <c r="N39" s="43">
+        <f>(LN(J39) - LN(I39))/(2*1.96)</f>
+        <v>0.2618976502660767</v>
+      </c>
+      <c r="O39" s="43">
+        <f>ABS(LN(D39)/N39)</f>
+        <v>3.4986596135675261</v>
+      </c>
+      <c r="P39" s="43">
+        <f>EXP(-0.717*O39 - 0.416*O39^2)</f>
+        <v>5.0013300493969876E-4</v>
+      </c>
+      <c r="Q39" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="S39" s="45"/>
+    </row>
+    <row r="40" spans="1:19" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>11</v>
       </c>
@@ -2950,83 +2936,81 @@
       <c r="C40" s="21">
         <v>1</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <v>0</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="R40" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="S40" s="26"/>
+    </row>
+    <row r="41" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="21">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21">
+        <v>1</v>
+      </c>
+      <c r="D41" s="22">
         <v>0.61</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E41" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="23">
-        <v>1</v>
-      </c>
-      <c r="G40" s="22">
-        <f>LN(D40)</f>
+      <c r="F41" s="23">
+        <v>1</v>
+      </c>
+      <c r="G41" s="22">
+        <f>LN(D41)</f>
         <v>-0.49429632181478012</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H41" s="22">
         <v>0.16</v>
       </c>
-      <c r="I40" s="24">
-        <f>EXP($G40-1.96*$H40)</f>
+      <c r="I41" s="24">
+        <f>EXP($G41-1.96*$H41)</f>
         <v>0.44579488947420237</v>
       </c>
-      <c r="J40" s="24">
-        <f>EXP($G40+1.96*$H40)</f>
+      <c r="J41" s="24">
+        <f>EXP($G41+1.96*$H41)</f>
         <v>0.83468879699109466</v>
       </c>
-      <c r="K40" s="55">
+      <c r="K41" s="49">
         <v>2E-3</v>
       </c>
-      <c r="L40" s="27">
-        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K40))</f>
+      <c r="L41" s="27">
+        <f xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K41))</f>
         <v>3.0981663940555513</v>
       </c>
-      <c r="M40" s="27">
-        <f>ABS(LN(D40) / L40)</f>
+      <c r="M41" s="27">
+        <f>ABS(LN(D41) / L41)</f>
         <v>0.15954479487066478</v>
       </c>
-      <c r="Q40" s="37" t="s">
+      <c r="Q41" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="R40" s="25">
+      <c r="R41" s="25">
         <v>0.8</v>
       </c>
-      <c r="S40" s="26"/>
-    </row>
-    <row r="41" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="40">
-        <v>1</v>
-      </c>
-      <c r="C41" s="40">
-        <v>1</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="42">
-        <v>0</v>
-      </c>
-      <c r="G41" s="41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="R41" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="S41" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="26"/>
+    </row>
+    <row r="42" spans="1:19" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>9</v>
       </c>
@@ -3036,49 +3020,28 @@
       <c r="C42" s="40">
         <v>1</v>
       </c>
-      <c r="D42" s="41">
-        <f>EXP(G20*0.5)</f>
-        <v>0.92790085677296363</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>45</v>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="F42" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="41">
-        <f>LN(D42)</f>
-        <v>-7.4830387277203148E-2</v>
+        <v>0</v>
       </c>
       <c r="H42" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="I42" s="43">
-        <f>EXP($G42-1.96*$H42)</f>
-        <v>0.87491338396623741</v>
-      </c>
-      <c r="J42" s="43">
-        <f>EXP($G42+1.96*$H42)</f>
-        <v>0.98409741555996777</v>
-      </c>
-      <c r="K42" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="L42" s="43">
-        <f t="shared" ref="L42:L44" si="32" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K42))</f>
-        <v>2.5751251253213594</v>
-      </c>
-      <c r="M42" s="43">
-        <f t="shared" ref="M42:M44" si="33">ABS(LN(D42) / L42)</f>
-        <v>2.9058932531623987E-2</v>
-      </c>
-      <c r="Q42" s="46" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="R42" s="44">
         <v>0.2</v>
       </c>
-      <c r="S42" s="45"/>
+      <c r="S42" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="43" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
@@ -3091,47 +3054,46 @@
         <v>1</v>
       </c>
       <c r="D43" s="41">
-        <f>EXP(LN(D42)*2)</f>
-        <v>0.86099999999999999</v>
+        <f>EXP(G21*0.5)</f>
+        <v>0.92790085677296363</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="41">
         <f>LN(D43)</f>
-        <v>-0.14966077455440627</v>
+        <v>-7.4830387277203148E-2</v>
       </c>
       <c r="H43" s="41">
-        <f>H42*2</f>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I43" s="43">
         <f>EXP($G43-1.96*$H43)</f>
-        <v>0.7654734294432527</v>
+        <v>0.87491338396623741</v>
       </c>
       <c r="J43" s="43">
         <f>EXP($G43+1.96*$H43)</f>
-        <v>0.96844772331180795</v>
-      </c>
-      <c r="K43" s="43">
+        <v>0.98409741555996777</v>
+      </c>
+      <c r="K43" s="49">
         <v>0.01</v>
       </c>
       <c r="L43" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="L43:L45" si="36" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K43))</f>
         <v>2.5751251253213594</v>
       </c>
       <c r="M43" s="43">
-        <f t="shared" si="33"/>
-        <v>5.811786506324796E-2</v>
+        <f t="shared" ref="M43:M45" si="37">ABS(LN(D43) / L43)</f>
+        <v>2.9058932531623987E-2</v>
       </c>
       <c r="Q43" s="46" t="s">
         <v>22</v>
       </c>
       <c r="R43" s="44">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S43" s="45"/>
     </row>
@@ -3146,41 +3108,41 @@
         <v>1</v>
       </c>
       <c r="D44" s="41">
-        <f>EXP(LN(D42)*3)</f>
-        <v>0.79892263768152161</v>
+        <f>EXP(LN(D43)*2)</f>
+        <v>0.86099999999999999</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="41">
-        <f t="shared" ref="G44:G47" si="34">LN(D44)</f>
-        <v>-0.2244911618316095</v>
+        <f>LN(D44)</f>
+        <v>-0.14966077455440627</v>
       </c>
       <c r="H44" s="41">
-        <f>H42*3</f>
-        <v>0.09</v>
+        <f>H43*2</f>
+        <v>0.06</v>
       </c>
       <c r="I44" s="43">
-        <f t="shared" ref="I44:I51" si="35">EXP($G44-1.96*$H44)</f>
-        <v>0.66972294849043701</v>
+        <f>EXP($G44-1.96*$H44)</f>
+        <v>0.7654734294432527</v>
       </c>
       <c r="J44" s="43">
         <f>EXP($G44+1.96*$H44)</f>
-        <v>0.95304690161608496</v>
+        <v>0.96844772331180795</v>
       </c>
       <c r="K44" s="43">
         <v>0.01</v>
       </c>
       <c r="L44" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.5751251253213594</v>
       </c>
       <c r="M44" s="43">
-        <f t="shared" si="33"/>
-        <v>8.7176797594871985E-2</v>
+        <f t="shared" si="37"/>
+        <v>5.811786506324796E-2</v>
       </c>
       <c r="Q44" s="46" t="s">
         <v>22</v>
@@ -3190,38 +3152,62 @@
       </c>
       <c r="S44" s="45"/>
     </row>
-    <row r="45" spans="1:19" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="21">
-        <v>1</v>
-      </c>
-      <c r="C45" s="21">
-        <v>1</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="23">
-        <v>0</v>
-      </c>
-      <c r="G45" s="22">
-        <v>0</v>
-      </c>
-      <c r="H45" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="R45" s="25">
-        <v>0.86</v>
-      </c>
-      <c r="S45" s="26"/>
-    </row>
-    <row r="46" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="40">
+        <v>1</v>
+      </c>
+      <c r="C45" s="40">
+        <v>1</v>
+      </c>
+      <c r="D45" s="41">
+        <f>EXP(LN(D43)*3)</f>
+        <v>0.79892263768152161</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="42">
+        <v>3</v>
+      </c>
+      <c r="G45" s="41">
+        <f t="shared" ref="G45:G48" si="38">LN(D45)</f>
+        <v>-0.2244911618316095</v>
+      </c>
+      <c r="H45" s="41">
+        <f>H43*3</f>
+        <v>0.09</v>
+      </c>
+      <c r="I45" s="43">
+        <f t="shared" ref="I45:I52" si="39">EXP($G45-1.96*$H45)</f>
+        <v>0.66972294849043701</v>
+      </c>
+      <c r="J45" s="43">
+        <f>EXP($G45+1.96*$H45)</f>
+        <v>0.95304690161608496</v>
+      </c>
+      <c r="K45" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="L45" s="43">
+        <f t="shared" si="36"/>
+        <v>2.5751251253213594</v>
+      </c>
+      <c r="M45" s="43">
+        <f t="shared" si="37"/>
+        <v>8.7176797594871985E-2</v>
+      </c>
+      <c r="Q45" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="R45" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="S45" s="45"/>
+    </row>
+    <row r="46" spans="1:19" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>27</v>
       </c>
@@ -3231,45 +3217,24 @@
       <c r="C46" s="21">
         <v>1</v>
       </c>
-      <c r="D46" s="21">
-        <v>3.68</v>
-      </c>
+      <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="22">
-        <f t="shared" si="34"/>
-        <v>1.3029127521808397</v>
+        <v>0</v>
       </c>
       <c r="H46" s="22">
-        <v>0.18611851448019803</v>
-      </c>
-      <c r="I46" s="55">
-        <v>2.56</v>
-      </c>
-      <c r="J46" s="55">
-        <v>5.31</v>
-      </c>
-      <c r="N46" s="24">
-        <f>(LN(J46) - LN(I46))/(2*1.96)</f>
-        <v>0.18611851448019803</v>
-      </c>
-      <c r="O46" s="24">
-        <f>ABS(LN(D46)/N46)</f>
-        <v>7.0004467627505287</v>
-      </c>
-      <c r="P46" s="24">
-        <f>EXP(-0.717*O46 - 0.416*O46^2)</f>
-        <v>9.2543967021286156E-12</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="36" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="R46" s="25">
-        <v>0.11</v>
+        <v>0.86</v>
       </c>
       <c r="S46" s="26"/>
     </row>
@@ -3283,81 +3248,102 @@
       <c r="C47" s="21">
         <v>1</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
+        <v>3.68</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="23">
+        <v>1</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="38"/>
+        <v>1.3029127521808397</v>
+      </c>
+      <c r="H47" s="22">
+        <v>0.18611851448019803</v>
+      </c>
+      <c r="I47" s="49">
+        <v>2.56</v>
+      </c>
+      <c r="J47" s="49">
+        <v>5.31</v>
+      </c>
+      <c r="N47" s="24">
+        <f>(LN(J47) - LN(I47))/(2*1.96)</f>
+        <v>0.18611851448019803</v>
+      </c>
+      <c r="O47" s="24">
+        <f>ABS(LN(D47)/N47)</f>
+        <v>7.0004467627505287</v>
+      </c>
+      <c r="P47" s="24">
+        <f>EXP(-0.717*O47 - 0.416*O47^2)</f>
+        <v>9.2543967021286156E-12</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R47" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="S47" s="26"/>
+    </row>
+    <row r="48" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="21">
+        <v>1</v>
+      </c>
+      <c r="C48" s="21">
+        <v>1</v>
+      </c>
+      <c r="D48" s="22">
         <v>20</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E48" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F48" s="23">
         <v>2</v>
       </c>
-      <c r="G47" s="22">
-        <f t="shared" si="34"/>
+      <c r="G48" s="22">
+        <f t="shared" si="38"/>
         <v>2.9957322735539909</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H48" s="22">
         <v>0.76386837545884112</v>
       </c>
-      <c r="I47" s="24">
-        <f t="shared" si="35"/>
+      <c r="I48" s="24">
+        <f t="shared" si="39"/>
         <v>4.4751964833404605</v>
       </c>
-      <c r="J47" s="24">
-        <f>EXP($G47+1.96*$H47)</f>
+      <c r="J48" s="24">
+        <f>EXP($G48+1.96*$H48)</f>
         <v>89.381550394279941</v>
       </c>
-      <c r="K47" s="55">
+      <c r="K48" s="49">
         <v>1E-4</v>
       </c>
-      <c r="L47" s="24">
-        <f t="shared" ref="L47" si="36" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K47))</f>
+      <c r="L48" s="24">
+        <f t="shared" ref="L48" si="40" xml:space="preserve"> -0.862 + SQRT(0.743-2.404*LN(K48))</f>
         <v>3.9217912009441571</v>
       </c>
-      <c r="M47" s="24">
-        <f t="shared" ref="M47" si="37">ABS(LN(D47) / L47)</f>
+      <c r="M48" s="24">
+        <f t="shared" ref="M48" si="41">ABS(LN(D48) / L48)</f>
         <v>0.76386837545884112</v>
       </c>
-      <c r="Q47" s="38" t="s">
+      <c r="Q48" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="R47" s="25">
+      <c r="R48" s="25">
         <v>0.03</v>
       </c>
-      <c r="S47" s="26"/>
-    </row>
-    <row r="48" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="40">
-        <v>1</v>
-      </c>
-      <c r="C48" s="40">
-        <v>1</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="42">
-        <v>0</v>
-      </c>
-      <c r="G48" s="41">
-        <v>0</v>
-      </c>
-      <c r="H48" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="R48" s="44">
-        <v>0.4</v>
-      </c>
-      <c r="S48" s="45"/>
-    </row>
-    <row r="49" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="26"/>
+    </row>
+    <row r="49" spans="1:19" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>10</v>
       </c>
@@ -3367,40 +3353,24 @@
       <c r="C49" s="40">
         <v>1</v>
       </c>
-      <c r="D49" s="41">
-        <f>1.12^2</f>
-        <v>1.2544000000000002</v>
-      </c>
+      <c r="D49" s="41"/>
       <c r="E49" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="41">
-        <f t="shared" ref="G49:G51" si="38">LN(D49)</f>
-        <v>0.22665737061400648</v>
+        <v>0</v>
       </c>
       <c r="H49" s="41">
-        <f>0.044*2</f>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I49" s="43">
-        <f t="shared" si="35"/>
-        <v>1.0556718307109698</v>
-      </c>
-      <c r="J49" s="43">
-        <f t="shared" ref="J49:J51" si="39">EXP($G49+1.96*$H49)</f>
-        <v>1.4905383607141176</v>
-      </c>
-      <c r="K49" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="Q49" s="46" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="R49" s="44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S49" s="45"/>
     </row>
@@ -3415,36 +3385,39 @@
         <v>1</v>
       </c>
       <c r="D50" s="41">
-        <f>D49^(5/2)</f>
-        <v>1.7623416832000005</v>
+        <f>1.12^2</f>
+        <v>1.2544000000000002</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="41">
-        <f t="shared" si="38"/>
-        <v>0.5666434265350162</v>
+        <f t="shared" ref="G50:G52" si="42">LN(D50)</f>
+        <v>0.22665737061400648</v>
       </c>
       <c r="H50" s="41">
-        <f>H$49*5/2</f>
-        <v>0.21999999999999997</v>
+        <f>0.044*2</f>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I50" s="43">
-        <f t="shared" si="35"/>
-        <v>1.1450444148719017</v>
+        <f t="shared" si="39"/>
+        <v>1.0556718307109698</v>
       </c>
       <c r="J50" s="43">
-        <f t="shared" si="39"/>
-        <v>2.7124259705608611</v>
+        <f t="shared" ref="J50:J52" si="43">EXP($G50+1.96*$H50)</f>
+        <v>1.4905383607141176</v>
+      </c>
+      <c r="K50" s="49">
+        <v>0.01</v>
       </c>
       <c r="Q50" s="46" t="s">
         <v>22</v>
       </c>
       <c r="R50" s="44">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S50" s="45"/>
     </row>
@@ -3459,59 +3432,82 @@
         <v>1</v>
       </c>
       <c r="D51" s="41">
-        <f>D$49^(8/2)</f>
-        <v>2.4759631762948109</v>
+        <f>D50^(5/2)</f>
+        <v>1.7623416832000005</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="41">
-        <f t="shared" si="38"/>
-        <v>0.90662948245602593</v>
+        <f t="shared" si="42"/>
+        <v>0.5666434265350162</v>
       </c>
       <c r="H51" s="41">
-        <f>H$49*8/2</f>
-        <v>0.35199999999999998</v>
+        <f>H$50*5/2</f>
+        <v>0.21999999999999997</v>
       </c>
       <c r="I51" s="43">
-        <f t="shared" si="35"/>
-        <v>1.2419832318025601</v>
+        <f t="shared" si="39"/>
+        <v>1.1450444148719017</v>
       </c>
       <c r="J51" s="43">
-        <f t="shared" si="39"/>
-        <v>4.9359713508132499</v>
+        <f t="shared" si="43"/>
+        <v>2.7124259705608611</v>
       </c>
       <c r="Q51" s="46" t="s">
         <v>22</v>
       </c>
       <c r="R51" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="S51" s="45"/>
+    </row>
+    <row r="52" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="40">
+        <v>1</v>
+      </c>
+      <c r="C52" s="40">
+        <v>1</v>
+      </c>
+      <c r="D52" s="41">
+        <f>D$50^(8/2)</f>
+        <v>2.4759631762948109</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="42">
+        <v>3</v>
+      </c>
+      <c r="G52" s="41">
+        <f t="shared" si="42"/>
+        <v>0.90662948245602593</v>
+      </c>
+      <c r="H52" s="41">
+        <f>H$50*8/2</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I52" s="43">
+        <f t="shared" si="39"/>
+        <v>1.2419832318025601</v>
+      </c>
+      <c r="J52" s="43">
+        <f t="shared" si="43"/>
+        <v>4.9359713508132499</v>
+      </c>
+      <c r="Q52" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="R52" s="44">
         <v>0.1</v>
       </c>
-      <c r="S51" s="45"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="9"/>
+      <c r="S52" s="45"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -3519,7 +3515,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="2"/>
       <c r="G53" s="6"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -3550,7 +3546,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="24"/>
+      <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="9"/>
@@ -3571,7 +3567,7 @@
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
+      <c r="P55" s="24"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="9"/>
@@ -4101,6 +4097,27 @@
       <c r="R80" s="8"/>
       <c r="S80" s="9"/>
     </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
